--- a/inst/extdata/cell_pop.xlsx
+++ b/inst/extdata/cell_pop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -66,6 +66,66 @@
   </si>
   <si>
     <t xml:space="preserve">TCGA.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGA.30</t>
   </si>
 </sst>
 </file>
@@ -428,19 +488,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11964896885911</v>
+        <v>0.147778855508659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172585564327892</v>
+        <v>0.148800924280658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.227361531986389</v>
+        <v>0.103822613181546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.162625148252118</v>
+        <v>0.202367154695094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.157512098085135</v>
+        <v>0.163444746145979</v>
       </c>
     </row>
     <row r="3">
@@ -451,19 +511,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13435746653704</v>
+        <v>0.179227412620094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.115265494631603</v>
+        <v>0.215935816080309</v>
       </c>
       <c r="E3" t="n">
-        <v>0.188847386382986</v>
+        <v>0.180451988033019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.247721644141711</v>
+        <v>0.223402314283885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.124613626929931</v>
+        <v>0.142290291714016</v>
       </c>
     </row>
     <row r="4">
@@ -474,19 +534,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199838832428213</v>
+        <v>0.164047429955099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.176339376508258</v>
+        <v>0.118344864971004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.106989294069353</v>
+        <v>0.207634187652729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.222369857644662</v>
+        <v>0.177838892734144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.189028836670332</v>
+        <v>0.222106107056607</v>
       </c>
     </row>
     <row r="5">
@@ -497,19 +557,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0281441955943592</v>
+        <v>0.127432218415197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.021208246354945</v>
+        <v>0.246816325047985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03030321279075</v>
+        <v>0.12907481159782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0338971221935935</v>
+        <v>0.212079372350127</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0482057422515936</v>
+        <v>0.178820499090943</v>
       </c>
     </row>
     <row r="6">
@@ -520,19 +580,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0317387688090093</v>
+        <v>0.143674466770608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0252235475811176</v>
+        <v>0.217302748933434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0422874378506094</v>
+        <v>0.143743177666329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00851952206576243</v>
+        <v>0.246883754560258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0407531611272134</v>
+        <v>0.168571440235246</v>
       </c>
     </row>
     <row r="7">
@@ -543,19 +603,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017880596301984</v>
+        <v>0.165855523571372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0211254883906804</v>
+        <v>0.180209434020799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0190415601944551</v>
+        <v>0.17863367163809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0326611492899247</v>
+        <v>0.184748288441915</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0052023462485522</v>
+        <v>0.166904137830716</v>
       </c>
     </row>
     <row r="8">
@@ -566,19 +626,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0073613450396806</v>
+        <v>0.212438115361147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0388516370672733</v>
+        <v>0.227000905841123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0337239268352278</v>
+        <v>0.15846676856745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0215329385711811</v>
+        <v>0.131689695036039</v>
       </c>
       <c r="G8" t="n">
-        <v>0.048112942953594</v>
+        <v>0.167502509360202</v>
       </c>
     </row>
     <row r="9">
@@ -589,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0336402515647933</v>
+        <v>0.105029248981737</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00987588778370991</v>
+        <v>0.180205076409038</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0442847974249162</v>
+        <v>0.115679983550217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00680253979517147</v>
+        <v>0.175113118323497</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0353054543375038</v>
+        <v>0.149821470270399</v>
       </c>
     </row>
     <row r="10">
@@ -612,19 +672,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00853246934711933</v>
+        <v>0.00198095419909805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00055107269436121</v>
+        <v>0.0259493801859207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0346577537362464</v>
+        <v>0.00754602920496836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0125378264696337</v>
+        <v>0.0395195350982249</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0367363211233169</v>
+        <v>0.0440478497883305</v>
       </c>
     </row>
     <row r="11">
@@ -635,19 +695,479 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0164010044769384</v>
+        <v>0.0396461300784722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0247689113835804</v>
+        <v>0.018718041991815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0463718253420666</v>
+        <v>0.00844861520454288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0332789112231694</v>
+        <v>0.000168593926355243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0282304955762811</v>
+        <v>0.0491267841192894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0393584659323096</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00824622907675803</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00961789852008224</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0464077501441352</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0136136661400087</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.00297593725845218</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0131207559723407</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0110814804327674</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.046923920547124</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0414425607654266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0140001995372586</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0482710417243652</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00719024547142908</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0105492160539143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00621455532964319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0330241345451213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0231494600186124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0332654575584456</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0356730983010493</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0180605659377761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0157451884588227</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0412290663225576</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0317617829074152</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0204157611355186</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0141988683259115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0106339198537171</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.039014204335399</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0125161568052135</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0467009145999327</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00402926906244829</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00356419244781137</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00505397137021646</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0108161631855182</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0114565142896026</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0172732800827362</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0315344358677976</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0215740836807527</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0498336509335786</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0429396957508288</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0474891081568785</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0416802819585428</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0156720128841698</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0249908295692876</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0278811801108532</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.00898142792284489</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0340096966479905</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0304751766961999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0391787175089121</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0482979068066925</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0175787051557563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0399439803673886</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0474971600691788</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0256016939994879</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0323361034854315</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.00354817489860579</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.000846909452229738</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00332239205017686</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0443577869329602</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.013762832141947</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00670091338688508</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0318055958370678</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.036555179185234</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0381200503092259</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.023605844413396</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0185437669744715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0242098681046627</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0260423709871247</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0142658532131463</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00425001302501187</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0475212060380727</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0337230002973229</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0341941130231135</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0157969365827739</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0378404775401577</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0279231501161121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00252438480965793</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0379567027674057</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0336706819129176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0460218428401276</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0450215765857138</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0424570673145354</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0358177411719225</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0181254432071</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.023938586039003</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0221916942740791</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0458171207108535</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.022885263885837</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.000852973386645317</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0367496429360472</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0372501977602951</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0217193991062231</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.00953305383445695</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0233380902558565</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0259254797361791</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0461059343651868</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0383625460322946</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.011953224404715</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0202380314236507</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0275173924164847</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0395834643975832</v>
       </c>
     </row>
   </sheetData>
